--- a/1.Data/3. Saved files/eurochem.xlsx
+++ b/1.Data/3. Saved files/eurochem.xlsx
@@ -530,7 +530,7 @@
         <v>1.31618096674676</v>
       </c>
       <c r="E5" t="n">
-        <v>103.59</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>1.74378085286223</v>
